--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1780169.042674489</v>
+        <v>1815487.798000257</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914463</v>
+        <v>426806.9758914459</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478716</v>
+        <v>8362709.48847871</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7930578.883256845</v>
+        <v>7930578.883256847</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>130.3832897527008</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.6992324161051</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>126.3720942127319</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>12.70987327901044</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,13 +1150,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>80.83011447495538</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>230.0285617769921</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1229,13 +1229,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275.1808785615277</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>111.4030392445285</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5974673951705</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.47529300550314</v>
+        <v>119.7809561473938</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>151.5414375796786</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>122.384696368004</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1542455549753</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>7.353154002015296</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47.23959131629378</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>47.23959131629373</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>135.0302035943336</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>175.6473376347481</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>38.78966489179808</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>47.36031653995597</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.23959131629395</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>143.6889339462832</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>140.6525053613416</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>115.5584180130438</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2219,7 +2219,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>193.174509744018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.576415288187529</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>31.28680070732944</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>337.8966832120405</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>259.3898610953904</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.98571445901692</v>
+        <v>44.16589154467486</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>16.82595545337905</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>59.31165795880896</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.722778175975149</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>146.5623749521073</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>51.29089358161719</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>261.2710370894297</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>41.77916833032208</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>45.43345970665899</v>
       </c>
       <c r="H30" t="n">
-        <v>52.18293713757069</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>47.72067347890841</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>47.23959131629373</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>187.2771953980855</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>22.16330173110874</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>31.51871451439819</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>73.90328094029398</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.178973682762</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>87.7479288657658</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>150.0782626521197</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>105.5255478677685</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>8.142111638529839</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -3404,7 +3404,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.59719675730194</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>226.6011874772293</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>56.20931647108959</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>199.6954326578</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>43.76331341951682</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>85.73493885277897</v>
+        <v>154.1918883063999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>209.3901501717382</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>73.64690839405421</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3878,7 +3878,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
-        <v>171.0185685698761</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>4.563500664549821</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>115.17793630079</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>64.81762535284528</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>235.9869175960792</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>35.33191364804597</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>88.59211149845176</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>74.15307578127808</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>199.9063665998298</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>591.4512093066566</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>591.4512093066566</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>591.4512093066566</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>348.0024326625565</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>104.5536560184564</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E3" t="n">
         <v>508.9694238887622</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W5" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592.9597988536757</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C6" t="n">
-        <v>418.5067695725487</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>836.4085754977757</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>592.9597988536757</v>
+        <v>716.0667914415093</v>
       </c>
       <c r="X6" t="n">
-        <v>592.9597988536757</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y6" t="n">
-        <v>592.9597988536757</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.8046290289238</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C8" t="n">
-        <v>509.8046290289238</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D8" t="n">
-        <v>509.8046290289238</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E8" t="n">
-        <v>509.8046290289238</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>502.8591282797204</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>509.8046290289238</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>509.8046290289238</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>509.8046290289238</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>509.8046290289238</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>509.8046290289238</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.8046290289238</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4928,7 +4928,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>792.873703737558</v>
+        <v>1327.084749330048</v>
       </c>
       <c r="C11" t="n">
-        <v>792.873703737558</v>
+        <v>958.1222323896359</v>
       </c>
       <c r="D11" t="n">
-        <v>434.6080051308075</v>
+        <v>958.1222323896359</v>
       </c>
       <c r="E11" t="n">
-        <v>48.81975253256327</v>
+        <v>572.3339797913916</v>
       </c>
       <c r="F11" t="n">
-        <v>48.81975253256327</v>
+        <v>161.348075001784</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>161.348075001784</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5041,16 +5041,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977595</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540051</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M11" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
         <v>1672.394424063531</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2187.207932640046</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>2187.207932640046</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1834.439277369932</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X11" t="n">
-        <v>1460.973519108852</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y11" t="n">
-        <v>1070.834187133041</v>
+        <v>1327.084749330048</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>921.5458946967642</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C12" t="n">
-        <v>747.0928654156372</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D12" t="n">
-        <v>598.158455754386</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E12" t="n">
-        <v>438.9210007489305</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F12" t="n">
-        <v>292.3864427758155</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G12" t="n">
         <v>155.4193039928149</v>
@@ -5120,52 +5120,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T12" t="n">
-        <v>2222.939999577549</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U12" t="n">
-        <v>1994.762495647263</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V12" t="n">
-        <v>1759.610387415521</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W12" t="n">
-        <v>1505.373030687319</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X12" t="n">
-        <v>1297.521530481786</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.761231716832</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="13">
@@ -5235,16 +5235,16 @@
         <v>351.4590821581503</v>
       </c>
       <c r="V13" t="n">
-        <v>96.77459395226342</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W13" t="n">
-        <v>96.77459395226342</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X13" t="n">
-        <v>96.77459395226342</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1328.153373032848</v>
+        <v>1551.245491941685</v>
       </c>
       <c r="C14" t="n">
-        <v>1328.153373032848</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="D14" t="n">
-        <v>1328.153373032848</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E14" t="n">
-        <v>942.3651204346033</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F14" t="n">
-        <v>531.3792156449958</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G14" t="n">
         <v>378.3070564736033</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T14" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U14" t="n">
-        <v>2440.987626628164</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V14" t="n">
-        <v>2440.987626628164</v>
+        <v>1674.866397363912</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.218971358049</v>
+        <v>1674.866397363912</v>
       </c>
       <c r="X14" t="n">
-        <v>1714.753213096969</v>
+        <v>1551.245491941685</v>
       </c>
       <c r="Y14" t="n">
-        <v>1714.753213096969</v>
+        <v>1551.245491941685</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>744.1456658227286</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C15" t="n">
-        <v>569.6926365416016</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D15" t="n">
-        <v>420.7582268803504</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E15" t="n">
-        <v>261.5207718748949</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F15" t="n">
-        <v>114.9862139017798</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G15" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478935</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5390,19 +5390,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1817.362266773227</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1582.210158541485</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1327.972801813283</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1120.12130160775</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y15" t="n">
-        <v>912.3610028427966</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="F16" t="n">
         <v>48.81975253256327</v>
@@ -5469,19 +5469,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U16" t="n">
-        <v>592.9214107754108</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V16" t="n">
-        <v>338.2369225695239</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>96.53651143791052</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1187.033872869333</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="C17" t="n">
-        <v>818.0713559289213</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="D17" t="n">
-        <v>459.8056573221708</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="E17" t="n">
-        <v>459.8056573221708</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F17" t="n">
-        <v>48.81975253256327</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5527,7 +5527,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5542,25 +5542,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2235.502882850073</v>
       </c>
       <c r="T17" t="n">
-        <v>1971.003775293977</v>
+        <v>2015.888278181759</v>
       </c>
       <c r="U17" t="n">
-        <v>1717.224081305859</v>
+        <v>2015.888278181759</v>
       </c>
       <c r="V17" t="n">
-        <v>1539.802528139447</v>
+        <v>1684.825390838189</v>
       </c>
       <c r="W17" t="n">
-        <v>1187.033872869333</v>
+        <v>1332.056735568075</v>
       </c>
       <c r="X17" t="n">
-        <v>1187.033872869333</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="Y17" t="n">
-        <v>1187.033872869333</v>
+        <v>958.5909773069948</v>
       </c>
     </row>
     <row r="18">
@@ -5579,40 +5579,40 @@
         <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>398.7971326015548</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N18" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O18" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>592.9214107754108</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>338.2369225695239</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>412.6486187827406</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1323.932475581935</v>
+        <v>792.873703737558</v>
       </c>
       <c r="C20" t="n">
-        <v>954.9699586415231</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D20" t="n">
-        <v>596.7042600347727</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5755,16 +5755,16 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5782,22 +5782,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2440.987626628164</v>
+        <v>2295.847289308686</v>
       </c>
       <c r="U20" t="n">
-        <v>2187.207932640046</v>
+        <v>2295.847289308686</v>
       </c>
       <c r="V20" t="n">
-        <v>1856.145045296475</v>
+        <v>2295.847289308686</v>
       </c>
       <c r="W20" t="n">
-        <v>1714.071807557747</v>
+        <v>1943.078634038571</v>
       </c>
       <c r="X20" t="n">
-        <v>1714.071807557747</v>
+        <v>1569.612875777492</v>
       </c>
       <c r="Y20" t="n">
-        <v>1323.932475581935</v>
+        <v>1179.47354380168</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>922.6086434646021</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C21" t="n">
-        <v>748.1556141834751</v>
+        <v>715.9468792828742</v>
       </c>
       <c r="D21" t="n">
         <v>599.2212045222238</v>
@@ -5834,22 +5834,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5858,25 +5858,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="C22" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="D22" t="n">
-        <v>385.9536814748714</v>
+        <v>201.3424427458146</v>
       </c>
       <c r="E22" t="n">
-        <v>385.9536814748714</v>
+        <v>201.3424427458146</v>
       </c>
       <c r="F22" t="n">
-        <v>239.063733976961</v>
+        <v>54.45249524790421</v>
       </c>
       <c r="G22" t="n">
-        <v>239.063733976961</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>80.42258152986574</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V22" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W22" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X22" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y22" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>938.0140410570359</v>
+        <v>729.017379164404</v>
       </c>
       <c r="C23" t="n">
-        <v>938.0140410570359</v>
+        <v>729.017379164404</v>
       </c>
       <c r="D23" t="n">
-        <v>938.0140410570359</v>
+        <v>729.017379164404</v>
       </c>
       <c r="E23" t="n">
-        <v>552.2257884587916</v>
+        <v>729.017379164404</v>
       </c>
       <c r="F23" t="n">
-        <v>210.9160074365284</v>
+        <v>729.017379164404</v>
       </c>
       <c r="G23" t="n">
-        <v>210.9160074365284</v>
+        <v>310.8297132349778</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6016,25 +6016,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V23" t="n">
-        <v>2440.987626628164</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.218971358049</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X23" t="n">
-        <v>1714.753213096969</v>
+        <v>729.017379164404</v>
       </c>
       <c r="Y23" t="n">
-        <v>1324.613881121158</v>
+        <v>729.017379164404</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G24" t="n">
         <v>48.81975253256327</v>
@@ -6080,40 +6080,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>345.8263394428094</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="C25" t="n">
-        <v>345.8263394428094</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D25" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E25" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G25" t="n">
         <v>48.81975253256327</v>
@@ -6174,25 +6174,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V25" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W25" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X25" t="n">
-        <v>424.5997883913113</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="Y25" t="n">
-        <v>424.5997883913113</v>
+        <v>412.6486187827406</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1426.048009695347</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="C26" t="n">
-        <v>1057.085492754935</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="D26" t="n">
-        <v>1057.085492754935</v>
+        <v>856.4054880179881</v>
       </c>
       <c r="E26" t="n">
-        <v>1040.089578155562</v>
+        <v>856.4054880179881</v>
       </c>
       <c r="F26" t="n">
-        <v>629.1036733659547</v>
+        <v>856.4054880179881</v>
       </c>
       <c r="G26" t="n">
-        <v>210.9160074365284</v>
+        <v>438.2178220885618</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>108.7305181475218</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6232,7 +6232,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6259,19 +6259,19 @@
         <v>2152.282423226541</v>
       </c>
       <c r="U26" t="n">
-        <v>2152.282423226541</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V26" t="n">
-        <v>2152.282423226541</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W26" t="n">
-        <v>1799.513767956427</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="X26" t="n">
-        <v>1426.048009695347</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="Y26" t="n">
-        <v>1426.048009695347</v>
+        <v>1214.671186624739</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>776.0740854914872</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>601.6210562103602</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>452.6866465491088</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>293.4491915436533</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6308,49 +6308,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225003</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2437.227244632229</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2276.829513525103</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2077.468190372272</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1849.290686441986</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1614.138578210243</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1359.901221482042</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1152.049721276509</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>944.2894225115551</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>196.8625555144898</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="C28" t="n">
-        <v>196.8625555144898</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D28" t="n">
-        <v>196.8625555144898</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E28" t="n">
-        <v>196.8625555144898</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F28" t="n">
-        <v>196.8625555144898</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G28" t="n">
-        <v>196.8625555144898</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
         <v>48.81975253256327</v>
@@ -6411,25 +6411,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>196.8625555144898</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U28" t="n">
-        <v>196.8625555144898</v>
+        <v>588.829186264983</v>
       </c>
       <c r="V28" t="n">
-        <v>196.8625555144898</v>
+        <v>588.829186264983</v>
       </c>
       <c r="W28" t="n">
-        <v>196.8625555144898</v>
+        <v>588.829186264983</v>
       </c>
       <c r="X28" t="n">
-        <v>196.8625555144898</v>
+        <v>588.829186264983</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.8625555144898</v>
+        <v>368.0366071214529</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1622.047274456592</v>
+        <v>1109.504048394587</v>
       </c>
       <c r="C29" t="n">
-        <v>1622.047274456592</v>
+        <v>1109.504048394587</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>1109.504048394587</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>723.7157957963423</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>312.7298910067347</v>
       </c>
       <c r="G29" t="n">
         <v>48.81975253256327</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T29" t="n">
-        <v>2398.786446496525</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U29" t="n">
-        <v>2398.786446496525</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V29" t="n">
-        <v>2398.786446496525</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W29" t="n">
-        <v>2398.786446496525</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X29" t="n">
-        <v>2398.786446496525</v>
+        <v>1886.24322043452</v>
       </c>
       <c r="Y29" t="n">
-        <v>2008.647114520714</v>
+        <v>1496.103888458708</v>
       </c>
     </row>
     <row r="30">
@@ -6521,46 +6521,46 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F30" t="n">
-        <v>239.5596775960993</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G30" t="n">
-        <v>101.5297900452609</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>255.6636054634044</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>255.6636054634044</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>255.6636054634044</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>255.6636054634044</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256327</v>
@@ -6648,25 +6648,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T31" t="n">
-        <v>592.9214107754108</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="U31" t="n">
-        <v>592.9214107754108</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="V31" t="n">
-        <v>338.2369225695239</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="W31" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1323.932475581935</v>
+        <v>606.9511537134654</v>
       </c>
       <c r="C32" t="n">
-        <v>954.9699586415231</v>
+        <v>237.9886367730537</v>
       </c>
       <c r="D32" t="n">
-        <v>596.7042600347727</v>
+        <v>237.9886367730537</v>
       </c>
       <c r="E32" t="n">
-        <v>210.9160074365284</v>
+        <v>237.9886367730537</v>
       </c>
       <c r="F32" t="n">
-        <v>210.9160074365284</v>
+        <v>237.9886367730537</v>
       </c>
       <c r="G32" t="n">
-        <v>210.9160074365284</v>
+        <v>237.9886367730537</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
@@ -6703,7 +6703,7 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2418.600453162397</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2418.600453162397</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2418.600453162397</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2418.600453162397</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>2087.537565818826</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W32" t="n">
-        <v>2087.537565818826</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X32" t="n">
-        <v>1714.071807557747</v>
+        <v>1383.690325753399</v>
       </c>
       <c r="Y32" t="n">
-        <v>1323.932475581935</v>
+        <v>993.5509937775871</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>882.5823026510593</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C33" t="n">
-        <v>708.1292733699323</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D33" t="n">
-        <v>559.1948637086811</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E33" t="n">
-        <v>399.9574087032256</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F33" t="n">
-        <v>253.4228507301105</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6806,25 +6806,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V33" t="n">
-        <v>1720.646795369816</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1466.409438641614</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X33" t="n">
-        <v>1258.557938436081</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>1050.797639671127</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.469531260133</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C34" t="n">
-        <v>123.469531260133</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D34" t="n">
-        <v>123.469531260133</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E34" t="n">
-        <v>123.469531260133</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>123.469531260133</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>123.469531260133</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
         <v>48.81975253256327</v>
@@ -6885,25 +6885,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>640.638169680758</v>
+        <v>485.9119336375641</v>
       </c>
       <c r="T34" t="n">
-        <v>640.638169680758</v>
+        <v>485.9119336375641</v>
       </c>
       <c r="U34" t="n">
-        <v>351.4590821581503</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="V34" t="n">
-        <v>351.4590821581503</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="W34" t="n">
-        <v>351.4590821581503</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="X34" t="n">
-        <v>123.469531260133</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.469531260133</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1221.692097593841</v>
+        <v>1316.856675913745</v>
       </c>
       <c r="C35" t="n">
-        <v>852.7295806534291</v>
+        <v>1316.856675913745</v>
       </c>
       <c r="D35" t="n">
-        <v>852.7295806534291</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="E35" t="n">
-        <v>466.9413280551849</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F35" t="n">
-        <v>378.3070564736033</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2371.897027894854</v>
+        <v>2220.302823195743</v>
       </c>
       <c r="T35" t="n">
-        <v>2371.897027894854</v>
+        <v>2000.68821852743</v>
       </c>
       <c r="U35" t="n">
-        <v>2371.897027894854</v>
+        <v>2000.68821852743</v>
       </c>
       <c r="V35" t="n">
-        <v>2371.897027894854</v>
+        <v>1669.625331183859</v>
       </c>
       <c r="W35" t="n">
-        <v>2371.897027894854</v>
+        <v>1316.856675913745</v>
       </c>
       <c r="X35" t="n">
-        <v>1998.431269633774</v>
+        <v>1316.856675913745</v>
       </c>
       <c r="Y35" t="n">
-        <v>1608.291937657963</v>
+        <v>1316.856675913745</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>957.3366797756757</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C36" t="n">
-        <v>782.8836504945488</v>
+        <v>715.9468792828742</v>
       </c>
       <c r="D36" t="n">
-        <v>633.9492408332975</v>
+        <v>567.0124696216229</v>
       </c>
       <c r="E36" t="n">
-        <v>474.711785827842</v>
+        <v>407.7750146161674</v>
       </c>
       <c r="F36" t="n">
-        <v>328.177227854727</v>
+        <v>261.2404566430524</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>123.210569092214</v>
       </c>
       <c r="H36" t="n">
         <v>114.9862139017798</v>
@@ -7016,25 +7016,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>81.93751399838828</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>318.2287647883253</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7052,16 +7052,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1795.401172494432</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1541.163815766231</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1333.312315560698</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1125.552016795744</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>365.8330612915103</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C37" t="n">
-        <v>365.8330612915103</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D37" t="n">
-        <v>365.8330612915103</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E37" t="n">
-        <v>217.9199677091171</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F37" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
         <v>48.81975253256327</v>
@@ -7122,25 +7122,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T37" t="n">
-        <v>412.9009368039365</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="U37" t="n">
-        <v>365.8330612915103</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="V37" t="n">
-        <v>365.8330612915103</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="W37" t="n">
-        <v>365.8330612915103</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X37" t="n">
-        <v>365.8330612915103</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y37" t="n">
-        <v>365.8330612915103</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1044.14645931724</v>
+        <v>1005.283080311421</v>
       </c>
       <c r="C38" t="n">
-        <v>987.3693719727053</v>
+        <v>636.3205633710095</v>
       </c>
       <c r="D38" t="n">
-        <v>629.1036733659547</v>
+        <v>636.3205633710095</v>
       </c>
       <c r="E38" t="n">
-        <v>629.1036733659547</v>
+        <v>250.5323107727652</v>
       </c>
       <c r="F38" t="n">
-        <v>629.1036733659547</v>
+        <v>250.5323107727652</v>
       </c>
       <c r="G38" t="n">
-        <v>210.9160074365284</v>
+        <v>250.5323107727652</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K38" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977595</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540051</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7210,16 +7210,16 @@
         <v>2118.117333906737</v>
       </c>
       <c r="V38" t="n">
-        <v>1787.054446563166</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W38" t="n">
-        <v>1434.285791293052</v>
+        <v>1765.348678636623</v>
       </c>
       <c r="X38" t="n">
-        <v>1434.285791293052</v>
+        <v>1391.882920375543</v>
       </c>
       <c r="Y38" t="n">
-        <v>1044.14645931724</v>
+        <v>1391.882920375543</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H39" t="n">
         <v>48.81975253256327</v>
@@ -7262,16 +7262,16 @@
         <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N39" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="C40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="D40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="E40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="F40" t="n">
-        <v>135.4207008687036</v>
+        <v>204.5691346602399</v>
       </c>
       <c r="G40" t="n">
         <v>48.81975253256327</v>
@@ -7359,25 +7359,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S40" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T40" t="n">
-        <v>424.5997883913113</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.4207008687036</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>678.5126206556645</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C41" t="n">
-        <v>678.5126206556645</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D41" t="n">
-        <v>678.5126206556645</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E41" t="n">
-        <v>678.5126206556645</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
         <v>467.0074184619895</v>
@@ -7414,7 +7414,7 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,7 +7423,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="T41" t="n">
-        <v>2040.094374027286</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U41" t="n">
-        <v>1786.314680039169</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V41" t="n">
-        <v>1455.251792695598</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W41" t="n">
-        <v>1455.251792695598</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X41" t="n">
-        <v>1455.251792695598</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y41" t="n">
-        <v>1065.112460719786</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>842.2405468607036</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C42" t="n">
-        <v>667.7875175795766</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D42" t="n">
-        <v>518.8531079183253</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E42" t="n">
-        <v>359.6156529128699</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>697.3559079137186</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1680.30503957946</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1426.067682851258</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1218.216182645725</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>1010.455883880772</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>201.3424427458148</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>53.42934916342168</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>53.42934916342168</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7578,43 +7578,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V43" t="n">
-        <v>385.9536814748711</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W43" t="n">
-        <v>269.6123316760934</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X43" t="n">
-        <v>269.6123316760934</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.877830753807</v>
+        <v>1280.028775702085</v>
       </c>
       <c r="C44" t="n">
-        <v>1425.877830753807</v>
+        <v>911.066258761673</v>
       </c>
       <c r="D44" t="n">
-        <v>1425.877830753807</v>
+        <v>911.066258761673</v>
       </c>
       <c r="E44" t="n">
-        <v>1040.089578155562</v>
+        <v>525.2780061634287</v>
       </c>
       <c r="F44" t="n">
-        <v>629.1036733659547</v>
+        <v>114.2921013738211</v>
       </c>
       <c r="G44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697315</v>
       </c>
       <c r="K44" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7675,25 +7675,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W44" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X44" t="n">
-        <v>2202.61700279374</v>
+        <v>1666.628615766206</v>
       </c>
       <c r="Y44" t="n">
-        <v>1812.477670817928</v>
+        <v>1666.628615766206</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>850.7452172829803</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C45" t="n">
-        <v>676.2921880018533</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D45" t="n">
-        <v>527.3577783406021</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E45" t="n">
-        <v>368.1203233351466</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F45" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H45" t="n">
         <v>114.9862139017798</v>
@@ -7730,13 +7730,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7754,25 +7754,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2351.500645316596</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2152.139322163765</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1923.961818233479</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1688.809710001737</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1434.572353273535</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1226.720853068002</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1018.960554303048</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.721849281329</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C46" t="n">
-        <v>123.721849281329</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D46" t="n">
-        <v>123.721849281329</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E46" t="n">
-        <v>123.721849281329</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F46" t="n">
-        <v>123.721849281329</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>412.9009368039367</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="U46" t="n">
-        <v>123.721849281329</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="V46" t="n">
-        <v>123.721849281329</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="W46" t="n">
-        <v>123.721849281329</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="X46" t="n">
-        <v>123.721849281329</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.721849281329</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194304</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>193.2401765302594</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>94.72888660085718</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302594</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>434.3429150104482</v>
+        <v>275.6680385918564</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>339.4781965639075</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.5529631019529</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>214.789391657101</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.052121280159497</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1093603465916</v>
+        <v>98.80369720470097</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>262.4643516904533</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>247.346404310465</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.74148333600732</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>198.4198312014622</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>98.18145670663748</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
@@ -23709,7 +23709,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>239.0477053310879</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.43565785890451</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>152.1049208353868</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>106.2795475015858</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>101.2551564782564</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,16 +23946,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>239.0477053310876</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>73.72952467534722</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>208.5884633560714</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>31.88664755159492</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>39.6260774054073</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>161.8327977366008</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>106.6683739310036</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
         <v>52.22830032617343</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24183,10 +24183,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>68.97936252967094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>66.80256980623921</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.8462657229204</v>
+        <v>135.6660886372624</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
@@ -24414,7 +24414,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
         <v>225.4598605480533</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>365.1044146188827</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>101.1636343961165</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.35061880807839</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>10.492365970517</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24651,13 +24651,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>234.9964030657644</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>152.7347521807022</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24730,10 +24730,10 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>175.6392902913084</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>91.216128968671</v>
       </c>
       <c r="H30" t="n">
-        <v>53.35061880807848</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>119.6885395458799</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24888,19 +24888,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>178.2202692317595</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,10 +24934,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>138.9152355035441</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>46.23639101486756</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>105.1308741609318</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>83.15145998233031</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25125,7 +25125,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>60.69902379379016</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>319.1281168759456</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>29.38759880111843</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>31.1240408075615</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.39144430711933</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25362,19 +25362,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>239.6900998900796</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>59.9218108593617</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>309.0635752999179</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>126.4969982438296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I39" t="n">
         <v>65.50479675552441</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>81.67427417200936</v>
+        <v>13.21732471838845</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25599,7 +25599,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>197.4858955699733</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>152.7347521807026</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>92.88627525581313</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>61.78201857954917</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>162.8457123602385</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25842,19 +25842,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>171.345062035801</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>349.1881639172867</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>133.7441830823898</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>101.317675027284</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>70.20164229760302</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>82.90166514134621</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26076,10 +26076,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>25.55349394822346</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613314.3875504348</v>
+        <v>613314.3875504349</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613314.3875504347</v>
+        <v>613314.3875504348</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613314.3875504348</v>
+        <v>613314.3875504349</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613314.3875504349</v>
+        <v>613314.3875504348</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>613314.3875504347</v>
+        <v>613314.3875504348</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>613314.3875504348</v>
+        <v>613314.3875504349</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613314.3875504348</v>
+        <v>613314.3875504349</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="E2" t="n">
+        <v>379599.3508404949</v>
+      </c>
+      <c r="F2" t="n">
         <v>379599.350840495</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>379599.350840495</v>
+      </c>
+      <c r="H2" t="n">
+        <v>379599.3508404951</v>
+      </c>
+      <c r="I2" t="n">
         <v>379599.3508404949</v>
-      </c>
-      <c r="G2" t="n">
-        <v>379599.3508404949</v>
-      </c>
-      <c r="H2" t="n">
-        <v>379599.3508404949</v>
-      </c>
-      <c r="I2" t="n">
-        <v>379599.3508404948</v>
       </c>
       <c r="J2" t="n">
         <v>379599.350840495</v>
       </c>
       <c r="K2" t="n">
-        <v>379599.3508404949</v>
+        <v>379599.3508404948</v>
       </c>
       <c r="L2" t="n">
         <v>379599.3508404949</v>
@@ -26349,7 +26349,7 @@
         <v>379599.350840495</v>
       </c>
       <c r="N2" t="n">
-        <v>379599.350840495</v>
+        <v>379599.3508404949</v>
       </c>
       <c r="O2" t="n">
         <v>379599.350840495</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910624</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109306</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="F4" t="n">
         <v>44379.07056643641</v>
@@ -26447,13 +26447,13 @@
         <v>44379.07056643641</v>
       </c>
       <c r="L4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="M4" t="n">
         <v>44379.07056643641</v>
       </c>
       <c r="N4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
       <c r="O4" t="n">
         <v>44379.07056643641</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124715.5856193335</v>
+        <v>124715.5856193334</v>
       </c>
       <c r="C6" t="n">
-        <v>205485.0171508811</v>
+        <v>205485.0171508812</v>
       </c>
       <c r="D6" t="n">
-        <v>205485.0171508809</v>
+        <v>205485.0171508807</v>
       </c>
       <c r="E6" t="n">
-        <v>-85319.98145279217</v>
+        <v>-79047.94933643322</v>
       </c>
       <c r="F6" t="n">
-        <v>284115.3176799878</v>
+        <v>290387.349796347</v>
       </c>
       <c r="G6" t="n">
-        <v>284115.3176799879</v>
+        <v>290387.349796347</v>
       </c>
       <c r="H6" t="n">
-        <v>284115.3176799878</v>
+        <v>290387.3497963471</v>
       </c>
       <c r="I6" t="n">
-        <v>284115.3176799878</v>
+        <v>290387.3497963469</v>
       </c>
       <c r="J6" t="n">
-        <v>221055.3750808817</v>
+        <v>227327.4071972407</v>
       </c>
       <c r="K6" t="n">
-        <v>284115.3176799879</v>
+        <v>290387.3497963468</v>
       </c>
       <c r="L6" t="n">
-        <v>284115.3176799878</v>
+        <v>290387.3497963469</v>
       </c>
       <c r="M6" t="n">
-        <v>192101.0723988948</v>
+        <v>198373.1045152539</v>
       </c>
       <c r="N6" t="n">
-        <v>284115.3176799879</v>
+        <v>290387.3497963469</v>
       </c>
       <c r="O6" t="n">
-        <v>284115.317679988</v>
+        <v>290387.349796347</v>
       </c>
       <c r="P6" t="n">
-        <v>284115.3176799879</v>
+        <v>290387.3497963469</v>
       </c>
     </row>
   </sheetData>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>346.9753958947189</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>267.0043036912184</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>36.14989389716655</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.0346092473755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>229.0037046816519</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>106.4284929366934</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>238.9851098819092</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.9951252742314</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>142.265735089176</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>139.7025389014769</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27949,13 +27949,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.4099661909219</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344606</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K42" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,10 +34231,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R42" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L43" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P43" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>91.0829537758999</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009465</v>
@@ -35500,7 +35500,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009465</v>
@@ -35743,10 +35743,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36922,7 +36922,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.45228430891415</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37402,10 +37402,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>468.0345334781883</v>
+        <v>309.3596570595964</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
-        <v>351.5945614881183</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471535</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38098,7 +38098,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
